--- a/05_Implementation/cl/xlsx/O3PO-CodeLists-V00.01.00.xlsx
+++ b/05_Implementation/cl/xlsx/O3PO-CodeLists-V00.01.00.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfontsan\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1575" windowWidth="12630" windowHeight="6420" tabRatio="884"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14790" windowHeight="6420" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="dummy" sheetId="196" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -258,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ListID</t>
   </si>
@@ -372,13 +368,28 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>AcceleratedProcedureType</t>
+  </si>
+  <si>
+    <t>URGENCY</t>
+  </si>
+  <si>
+    <t>Urgency Procedure</t>
+  </si>
+  <si>
+    <t>EMERGENCY</t>
+  </si>
+  <si>
+    <t>Emergency Procedure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -415,13 +426,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -489,7 +493,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,8 +505,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -517,1080 +522,11 @@
     <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 2 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2405,46 +1341,6 @@
 </MapInfo>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24095" name="Table760624096" displayName="Table760624096" ref="A12:AA14" tableType="xml" totalsRowShown="0" dataDxfId="0" connectionId="64">
-  <autoFilter ref="A12:AA14"/>
-  <tableColumns count="27">
-    <tableColumn id="1" uniqueName="Code" name="Code" dataDxfId="27">
-      <xmlColumnPr mapId="604" xpath="/CodeList/ValuesSet/ValueSet/Code" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Value" name="Name" dataDxfId="26">
-      <xmlColumnPr mapId="604" xpath="/CodeList/ValuesSet/ValueSet/Value" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="27" uniqueName="27" name="Description" dataDxfId="25"/>
-    <tableColumn id="3" uniqueName="3" name="bul" dataDxfId="24"/>
-    <tableColumn id="4" uniqueName="4" name="spa" dataDxfId="23"/>
-    <tableColumn id="5" uniqueName="5" name="ces" dataDxfId="22"/>
-    <tableColumn id="6" uniqueName="6" name="dan" dataDxfId="21"/>
-    <tableColumn id="7" uniqueName="7" name="deu" dataDxfId="20"/>
-    <tableColumn id="8" uniqueName="8" name="est" dataDxfId="19"/>
-    <tableColumn id="9" uniqueName="9" name="ell" dataDxfId="18"/>
-    <tableColumn id="10" uniqueName="10" name="eng" dataDxfId="17"/>
-    <tableColumn id="11" uniqueName="11" name="fra" dataDxfId="16"/>
-    <tableColumn id="12" uniqueName="12" name="gle" dataDxfId="15"/>
-    <tableColumn id="13" uniqueName="13" name="hrv" dataDxfId="14"/>
-    <tableColumn id="14" uniqueName="14" name="ita" dataDxfId="13"/>
-    <tableColumn id="15" uniqueName="15" name="lav" dataDxfId="12"/>
-    <tableColumn id="16" uniqueName="16" name="lit" dataDxfId="11"/>
-    <tableColumn id="17" uniqueName="17" name="hun" dataDxfId="10"/>
-    <tableColumn id="18" uniqueName="18" name="mlt" dataDxfId="9"/>
-    <tableColumn id="19" uniqueName="19" name="nld" dataDxfId="8"/>
-    <tableColumn id="20" uniqueName="20" name="pol" dataDxfId="7"/>
-    <tableColumn id="21" uniqueName="21" name="por" dataDxfId="6"/>
-    <tableColumn id="22" uniqueName="22" name="ron" dataDxfId="5"/>
-    <tableColumn id="23" uniqueName="23" name="slk" dataDxfId="4"/>
-    <tableColumn id="24" uniqueName="24" name="slv" dataDxfId="3"/>
-    <tableColumn id="25" uniqueName="25" name="fin" dataDxfId="2"/>
-    <tableColumn id="26" uniqueName="26" name="swe" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2488,7 +1384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2523,7 +1419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2742,228 +1638,499 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="V12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="W12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Y12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="Z12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AA12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
+    <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
+    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>